--- a/matlab/experiment/28Aug/30deg/sim30deg2.xlsx
+++ b/matlab/experiment/28Aug/30deg/sim30deg2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltd\OneDrive\Documents\2021\semester2\thesis-2021\matlab\experiment\28Aug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltd\OneDrive\Documents\2021\semester2\thesis-2021\matlab\experiment\28Aug\30deg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05736C94-75CD-4367-8912-84863D521DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C93230A-304B-40A8-B806-CF2E977120A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1344" windowWidth="19812" windowHeight="11616" activeTab="6" xr2:uid="{7FCF7E85-A660-4C5E-A052-4524A4E8C5E7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7FCF7E85-A660-4C5E-A052-4524A4E8C5E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,50 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Spacing</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Amplitude</t>
+  </si>
+  <si>
+    <t>Fitness</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -87,6 +131,3529 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Spacing!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Spacing!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.41162876227585177</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41162876227585177</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.48699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.50700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.50700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.50700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.48699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.501</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.497</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.497</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.497</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.48099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.52300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.52300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.52300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.52300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.52300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.50600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.50600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.50600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.50900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.50900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.50900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.50900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.50900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.50900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.50900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.504</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.50800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.50600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.50600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.50800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.50600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.50700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.504</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.504</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.50700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.50700000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1B45-47B5-8B47-3B9E63B7B221}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Spacing!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Spacing!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.56977094716455701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56977094716455701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.622</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.53833581319192703</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53833581319192703</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.52300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.52300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.52300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.52300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.48499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.47799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.47799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.47799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.51900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.51900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.51900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.51900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.51900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.52200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.52200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.52200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.51700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.51700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.51700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.51700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.51700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.51700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.51700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.51800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.51900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.51900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.51800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.51900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.52800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.52800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.52800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1B45-47B5-8B47-3B9E63B7B221}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Spacing!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Spacing!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.53158874179203508</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53158874179203508</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.30199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.30199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.32300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.32300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.40100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.40100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.40100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.32300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.35099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.39200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.39200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.39200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.34699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.39900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.39900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.39900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.39900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.39900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.44600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.44600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.44600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.48722385699751114</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.48722385699751114</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.48722385699751114</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.48722385699751114</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.48722385699751114</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.48722385699751114</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.48722385699751114</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.41499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.46700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.45400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.45400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.46700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.46100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.46100000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1B45-47B5-8B47-3B9E63B7B221}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1111464047"/>
+        <c:axId val="1111464463"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1111464047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1111464463"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1111464463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1111464047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Phase!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Phase!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>269.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>269.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>269.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>269.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>269.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>269.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>269.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>269.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>269.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>269.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>255.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>255.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>255.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>269.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>269.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>269.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>269.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>269.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>271.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>262.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>262.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>262.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>262.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>268.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>265.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>265.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>265.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>266.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>266.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>266.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>266.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>266.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>266.7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>267.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>266.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>267.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>267.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>265.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>267.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>265.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>267.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>267.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>266.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>266.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-14C8-4B84-B954-2DE7C18AB642}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Phase!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Phase!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>185.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>185.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>185.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>186.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>182.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>182.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>182.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>185.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>186.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>185.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>185.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>185.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>185.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>185.9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>185.9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>186.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>186.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>186.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>186.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>186.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>186.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>185.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>186.1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>186.1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>186</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-14C8-4B84-B954-2DE7C18AB642}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Phase!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Phase!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>77.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>77.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>77.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>93.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>93.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>93.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>77.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>77.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>77.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>77.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>77.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>81.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>85.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>85.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>84.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>81.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>81.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>81.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>83.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>84.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>84.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>84.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>83.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>83.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>83.7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>84.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>84.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>84.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>84.3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>84.4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>84.3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>85.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>85.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>84.4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>84.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-14C8-4B84-B954-2DE7C18AB642}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Phase!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Phase!$D$2:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-14C8-4B84-B954-2DE7C18AB642}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Phase!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Phase!$E$2:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>296.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>296.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>296.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>296.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>296.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>296.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>296.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>296.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>296.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>296.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>296.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>296.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>296.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>296.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>296.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>299.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>301.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>301.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>298.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>298.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>298.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>301.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>301.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>301.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>301.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>301.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>301.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>300.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>301.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>301.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>301.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>301.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>301.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>290.3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>290.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-14C8-4B84-B954-2DE7C18AB642}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Phase!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Phase!$F$2:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>151.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>151.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>151.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>151.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>151.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>177.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>177.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>185.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>185.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>185.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>177.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>177.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>177.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>177.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>177.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>187.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>178.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>178.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>180.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>179.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>184.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>181.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>181.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>181.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>182.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>185.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>182.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>182.7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>186.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>184.7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>186.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>186.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>185.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>186.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>184.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>185.9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>185.9</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>185.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>185.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-14C8-4B84-B954-2DE7C18AB642}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1118679439"/>
+        <c:axId val="1118676527"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1118679439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1118676527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1118676527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1118679439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>411481</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>145199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A43B8A5E-5127-4E00-A3AF-E8CC3760FE8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="7726680" cy="3985679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>73801</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>6503</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>115383</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60A6F2D2-49A8-409D-B7DF-ED2645A463B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7389001" y="6503"/>
+          <a:ext cx="5267819" cy="3949360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF5B38EA-6EFA-4CD0-A014-527B2C59C1B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{113244A5-E621-4836-98CC-A83C84A9CEA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,41 +3953,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B38CA0-F4D1-43D9-9985-609652249642}">
-  <dimension ref="A1"/>
+  <dimension ref="B25:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="D25">
+        <v>0.52</v>
+      </c>
+      <c r="E25">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="F25">
+        <v>0.52</v>
+      </c>
+      <c r="G25">
+        <v>0.50700000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>266.2</v>
+      </c>
+      <c r="D26">
+        <v>186</v>
+      </c>
+      <c r="E26">
+        <v>84.4</v>
+      </c>
+      <c r="F26">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G26">
+        <v>296</v>
+      </c>
+      <c r="H26">
+        <v>185.8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>-4.1643237748675297</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB21332-28D6-4514-808E-7844BE03246D}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:E50"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>0.41162876227585177</v>
-      </c>
-      <c r="B1">
-        <v>0.56977094716455701</v>
-      </c>
-      <c r="C1">
-        <v>0.53158874179203508</v>
-      </c>
-      <c r="D1">
-        <v>0.56977094716455701</v>
-      </c>
-      <c r="E1">
-        <v>0.41162876227585177</v>
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -442,19 +4081,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.61299999999999999</v>
+        <v>0.41162876227585177</v>
       </c>
       <c r="B3">
-        <v>0.6</v>
+        <v>0.56977094716455701</v>
       </c>
       <c r="C3">
-        <v>0.56699999999999995</v>
+        <v>0.53158874179203508</v>
       </c>
       <c r="D3">
-        <v>0.6</v>
+        <v>0.56977094716455701</v>
       </c>
       <c r="E3">
-        <v>0.61299999999999999</v>
+        <v>0.41162876227585177</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -476,53 +4115,53 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.33200000000000002</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="B5">
-        <v>0.33900000000000002</v>
+        <v>0.6</v>
       </c>
       <c r="C5">
-        <v>0.34399999999999997</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="D5">
-        <v>0.33900000000000002</v>
+        <v>0.6</v>
       </c>
       <c r="E5">
-        <v>0.33200000000000002</v>
+        <v>0.61299999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.5</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="B6">
-        <v>0.622</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="C6">
-        <v>0.30199999999999999</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="D6">
-        <v>0.622</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="E6">
-        <v>0.5</v>
+        <v>0.33200000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="B7">
-        <v>0.56599999999999995</v>
+        <v>0.622</v>
       </c>
       <c r="C7">
-        <v>0.42699999999999999</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="D7">
-        <v>0.56599999999999995</v>
+        <v>0.622</v>
       </c>
       <c r="E7">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -578,19 +4217,19 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="B11">
-        <v>0.53833581319192703</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="C11">
-        <v>0.30199999999999999</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="D11">
-        <v>0.53833581319192703</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="E11">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -612,19 +4251,19 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.48699999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="B13">
-        <v>0.52300000000000002</v>
+        <v>0.53833581319192703</v>
       </c>
       <c r="C13">
-        <v>0.32300000000000001</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="D13">
-        <v>0.52300000000000002</v>
+        <v>0.53833581319192703</v>
       </c>
       <c r="E13">
-        <v>0.48699999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -663,19 +4302,19 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0.50700000000000001</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="B16">
-        <v>0.52500000000000002</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="C16">
-        <v>0.40100000000000002</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="D16">
-        <v>0.52500000000000002</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="E16">
-        <v>0.50700000000000001</v>
+        <v>0.48699999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -714,53 +4353,53 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.48699999999999999</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="B19">
-        <v>0.52300000000000002</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="C19">
-        <v>0.32300000000000001</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="D19">
-        <v>0.52300000000000002</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="E19">
-        <v>0.48699999999999999</v>
+        <v>0.50700000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0.501</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="B20">
-        <v>0.48499999999999999</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="C20">
-        <v>0.35099999999999998</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="D20">
-        <v>0.48499999999999999</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="E20">
-        <v>0.501</v>
+        <v>0.48699999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0.497</v>
+        <v>0.501</v>
       </c>
       <c r="B21">
-        <v>0.47799999999999998</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="C21">
-        <v>0.39200000000000002</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="D21">
-        <v>0.47799999999999998</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="E21">
-        <v>0.497</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -799,36 +4438,36 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>0.48099999999999998</v>
+        <v>0.497</v>
       </c>
       <c r="B24">
-        <v>0.51200000000000001</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="C24">
-        <v>0.34699999999999998</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="D24">
-        <v>0.51200000000000001</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="E24">
-        <v>0.48099999999999998</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0.52300000000000002</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="B25">
-        <v>0.51900000000000002</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="C25">
-        <v>0.39900000000000002</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="D25">
-        <v>0.51900000000000002</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="E25">
-        <v>0.52300000000000002</v>
+        <v>0.48099999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -901,19 +4540,19 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>0.50600000000000001</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="B30">
-        <v>0.52200000000000002</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="C30">
-        <v>0.44600000000000001</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="D30">
-        <v>0.52200000000000002</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="E30">
-        <v>0.50600000000000001</v>
+        <v>0.52300000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -952,19 +4591,19 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0.50900000000000001</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="B33">
-        <v>0.51700000000000002</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="C33">
-        <v>0.48722385699751114</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="D33">
-        <v>0.51700000000000002</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="E33">
-        <v>0.50900000000000001</v>
+        <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1071,53 +4710,53 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>0.504</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="B40">
-        <v>0.52</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="C40">
-        <v>0.41499999999999998</v>
+        <v>0.48722385699751114</v>
       </c>
       <c r="D40">
-        <v>0.52</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="E40">
-        <v>0.504</v>
+        <v>0.50900000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>0.50800000000000001</v>
+        <v>0.504</v>
       </c>
       <c r="B41">
-        <v>0.51800000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="C41">
-        <v>0.46700000000000003</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="D41">
-        <v>0.51800000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="E41">
-        <v>0.50800000000000001</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>0.50600000000000001</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="B42">
-        <v>0.51900000000000002</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="C42">
-        <v>0.45400000000000001</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="D42">
-        <v>0.51900000000000002</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="E42">
-        <v>0.50600000000000001</v>
+        <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1139,70 +4778,70 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>0.50800000000000001</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="B44">
-        <v>0.51800000000000002</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="C44">
-        <v>0.46700000000000003</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="D44">
-        <v>0.51800000000000002</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="E44">
-        <v>0.50800000000000001</v>
+        <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>0.50600000000000001</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="B45">
-        <v>0.51900000000000002</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="C45">
-        <v>0.45</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="D45">
-        <v>0.51900000000000002</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="E45">
-        <v>0.50600000000000001</v>
+        <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>0.50700000000000001</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="B46">
-        <v>0.52800000000000002</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="C46">
-        <v>0.45600000000000002</v>
+        <v>0.45</v>
       </c>
       <c r="D46">
-        <v>0.52800000000000002</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="E46">
-        <v>0.50700000000000001</v>
+        <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0.504</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="B47">
         <v>0.52800000000000002</v>
       </c>
       <c r="C47">
-        <v>0.45500000000000002</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="D47">
         <v>0.52800000000000002</v>
       </c>
       <c r="E47">
-        <v>0.504</v>
+        <v>0.50700000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1224,19 +4863,19 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>0.50700000000000001</v>
+        <v>0.504</v>
       </c>
       <c r="B49">
-        <v>0.52</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="C49">
-        <v>0.46100000000000002</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="D49">
-        <v>0.52</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="E49">
-        <v>0.50700000000000001</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1253,6 +4892,23 @@
         <v>0.52</v>
       </c>
       <c r="E50">
+        <v>0.50700000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="B51">
+        <v>0.52</v>
+      </c>
+      <c r="C51">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="D51">
+        <v>0.52</v>
+      </c>
+      <c r="E51">
         <v>0.50700000000000001</v>
       </c>
     </row>
@@ -1263,32 +4919,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC44C623-5EB6-457C-B3E5-98771C24AE7E}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:F50"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>211</v>
-      </c>
-      <c r="B1">
-        <v>141</v>
-      </c>
-      <c r="C1">
-        <v>32</v>
-      </c>
-      <c r="D1">
-        <v>286</v>
-      </c>
-      <c r="E1">
-        <v>138</v>
-      </c>
-      <c r="F1">
-        <v>167</v>
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1313,22 +4969,22 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="C3">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>159</v>
+        <v>286</v>
       </c>
       <c r="E3">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="F3">
-        <v>310</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1353,42 +5009,42 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="B5">
-        <v>343</v>
+        <v>55</v>
       </c>
       <c r="C5">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="D5">
-        <v>234</v>
+        <v>159</v>
       </c>
       <c r="E5">
-        <v>198</v>
+        <v>88</v>
       </c>
       <c r="F5">
-        <v>101</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>269.3</v>
+        <v>136</v>
       </c>
       <c r="B6">
-        <v>197</v>
+        <v>343</v>
       </c>
       <c r="C6">
-        <v>77.3</v>
+        <v>260</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="E6">
-        <v>296.8</v>
+        <v>198</v>
       </c>
       <c r="F6">
-        <v>151.30000000000001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1476,7 +5132,7 @@
         <v>269.3</v>
       </c>
       <c r="B11">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="C11">
         <v>77.3</v>
@@ -1488,7 +5144,7 @@
         <v>296.8</v>
       </c>
       <c r="F11">
-        <v>171</v>
+        <v>151.30000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1528,7 +5184,7 @@
         <v>296.8</v>
       </c>
       <c r="F13">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1536,7 +5192,7 @@
         <v>269.3</v>
       </c>
       <c r="B14">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C14">
         <v>77.3</v>
@@ -1548,7 +5204,7 @@
         <v>296.8</v>
       </c>
       <c r="F14">
-        <v>177.2</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1573,22 +5229,22 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>255.9</v>
+        <v>269.3</v>
       </c>
       <c r="B16">
-        <v>185.8</v>
+        <v>180</v>
       </c>
       <c r="C16">
-        <v>93.1</v>
+        <v>77.3</v>
       </c>
       <c r="D16">
-        <v>28.8</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>307</v>
+        <v>296.8</v>
       </c>
       <c r="F16">
-        <v>185.8</v>
+        <v>177.2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1633,22 +5289,22 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>269.3</v>
+        <v>255.9</v>
       </c>
       <c r="B19">
-        <v>180</v>
+        <v>185.8</v>
       </c>
       <c r="C19">
-        <v>77.3</v>
+        <v>93.1</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>28.8</v>
       </c>
       <c r="E19">
-        <v>296.8</v>
+        <v>307</v>
       </c>
       <c r="F19">
-        <v>177.2</v>
+        <v>185.8</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1733,42 +5389,42 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>271.2</v>
+        <v>269.3</v>
       </c>
       <c r="B24">
-        <v>186.8</v>
+        <v>180</v>
       </c>
       <c r="C24">
-        <v>81.3</v>
+        <v>77.3</v>
       </c>
       <c r="D24">
-        <v>24.5</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>299.39999999999998</v>
+        <v>296.8</v>
       </c>
       <c r="F24">
-        <v>187.1</v>
+        <v>177.2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>262.60000000000002</v>
+        <v>271.2</v>
       </c>
       <c r="B25">
-        <v>182.9</v>
+        <v>186.8</v>
       </c>
       <c r="C25">
-        <v>85.2</v>
+        <v>81.3</v>
       </c>
       <c r="D25">
-        <v>25.9</v>
+        <v>24.5</v>
       </c>
       <c r="E25">
-        <v>302</v>
+        <v>299.39999999999998</v>
       </c>
       <c r="F25">
-        <v>178.3</v>
+        <v>187.1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1796,19 +5452,19 @@
         <v>262.60000000000002</v>
       </c>
       <c r="B27">
-        <v>182.4</v>
+        <v>182.9</v>
       </c>
       <c r="C27">
-        <v>83.5</v>
+        <v>85.2</v>
       </c>
       <c r="D27">
         <v>25.9</v>
       </c>
       <c r="E27">
-        <v>301.8</v>
+        <v>302</v>
       </c>
       <c r="F27">
-        <v>180.1</v>
+        <v>178.3</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1816,59 +5472,59 @@
         <v>262.60000000000002</v>
       </c>
       <c r="B28">
-        <v>182.9</v>
+        <v>182.4</v>
       </c>
       <c r="C28">
-        <v>85.2</v>
+        <v>83.5</v>
       </c>
       <c r="D28">
         <v>25.9</v>
       </c>
       <c r="E28">
-        <v>302</v>
+        <v>301.8</v>
       </c>
       <c r="F28">
-        <v>179.9</v>
+        <v>180.1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>268.2</v>
+        <v>262.60000000000002</v>
       </c>
       <c r="B29">
-        <v>185.7</v>
+        <v>182.9</v>
       </c>
       <c r="C29">
-        <v>84.6</v>
+        <v>85.2</v>
       </c>
       <c r="D29">
-        <v>25.6</v>
+        <v>25.9</v>
       </c>
       <c r="E29">
-        <v>301.5</v>
+        <v>302</v>
       </c>
       <c r="F29">
-        <v>184.1</v>
+        <v>179.9</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>265.39999999999998</v>
+        <v>268.2</v>
       </c>
       <c r="B30">
-        <v>187</v>
+        <v>185.7</v>
       </c>
       <c r="C30">
-        <v>81.900000000000006</v>
+        <v>84.6</v>
       </c>
       <c r="D30">
-        <v>25</v>
+        <v>25.6</v>
       </c>
       <c r="E30">
-        <v>298.60000000000002</v>
+        <v>301.5</v>
       </c>
       <c r="F30">
-        <v>181.1</v>
+        <v>184.1</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1913,42 +5569,42 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>267</v>
+        <v>265.39999999999998</v>
       </c>
       <c r="B33">
-        <v>186.3</v>
+        <v>187</v>
       </c>
       <c r="C33">
-        <v>83.9</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="D33">
-        <v>25.6</v>
+        <v>25</v>
       </c>
       <c r="E33">
-        <v>301.39999999999998</v>
+        <v>298.60000000000002</v>
       </c>
       <c r="F33">
-        <v>182.5</v>
+        <v>181.1</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>266.7</v>
+        <v>267</v>
       </c>
       <c r="B34">
-        <v>185.6</v>
+        <v>186.3</v>
       </c>
       <c r="C34">
-        <v>84.4</v>
+        <v>83.9</v>
       </c>
       <c r="D34">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="E34">
-        <v>301.5</v>
+        <v>301.39999999999998</v>
       </c>
       <c r="F34">
-        <v>182.4</v>
+        <v>182.5</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1993,42 +5649,42 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>266.8</v>
+        <v>266.7</v>
       </c>
       <c r="B37">
-        <v>185.5</v>
+        <v>185.6</v>
       </c>
       <c r="C37">
-        <v>83.7</v>
+        <v>84.4</v>
       </c>
       <c r="D37">
-        <v>25.4</v>
+        <v>25.7</v>
       </c>
       <c r="E37">
-        <v>301.7</v>
+        <v>301.5</v>
       </c>
       <c r="F37">
-        <v>185.8</v>
+        <v>182.4</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>266.7</v>
+        <v>266.8</v>
       </c>
       <c r="B38">
-        <v>185.9</v>
+        <v>185.5</v>
       </c>
       <c r="C38">
         <v>83.7</v>
       </c>
       <c r="D38">
-        <v>24.1</v>
+        <v>25.4</v>
       </c>
       <c r="E38">
-        <v>301</v>
+        <v>301.7</v>
       </c>
       <c r="F38">
-        <v>182.7</v>
+        <v>185.8</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2053,62 +5709,62 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>267.5</v>
+        <v>266.7</v>
       </c>
       <c r="B40">
-        <v>186.4</v>
+        <v>185.9</v>
       </c>
       <c r="C40">
-        <v>84.3</v>
+        <v>83.7</v>
       </c>
       <c r="D40">
-        <v>16.8</v>
+        <v>24.1</v>
       </c>
       <c r="E40">
-        <v>301.39999999999998</v>
+        <v>301</v>
       </c>
       <c r="F40">
-        <v>186.2</v>
+        <v>182.7</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>266.39999999999998</v>
+        <v>267.5</v>
       </c>
       <c r="B41">
-        <v>186.3</v>
+        <v>186.4</v>
       </c>
       <c r="C41">
-        <v>84.6</v>
+        <v>84.3</v>
       </c>
       <c r="D41">
-        <v>24.6</v>
+        <v>16.8</v>
       </c>
       <c r="E41">
-        <v>300.8</v>
+        <v>301.39999999999998</v>
       </c>
       <c r="F41">
-        <v>184.7</v>
+        <v>186.2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>267.5</v>
+        <v>266.39999999999998</v>
       </c>
       <c r="B42">
-        <v>186.4</v>
+        <v>186.3</v>
       </c>
       <c r="C42">
-        <v>84.3</v>
+        <v>84.6</v>
       </c>
       <c r="D42">
-        <v>16.8</v>
+        <v>24.6</v>
       </c>
       <c r="E42">
-        <v>301.39999999999998</v>
+        <v>300.8</v>
       </c>
       <c r="F42">
-        <v>186.2</v>
+        <v>184.7</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2133,82 +5789,82 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>265.7</v>
+        <v>267.5</v>
       </c>
       <c r="B44">
+        <v>186.4</v>
+      </c>
+      <c r="C44">
+        <v>84.3</v>
+      </c>
+      <c r="D44">
+        <v>16.8</v>
+      </c>
+      <c r="E44">
+        <v>301.39999999999998</v>
+      </c>
+      <c r="F44">
         <v>186.2</v>
-      </c>
-      <c r="C44">
-        <v>84.4</v>
-      </c>
-      <c r="D44">
-        <v>16.3</v>
-      </c>
-      <c r="E44">
-        <v>301.2</v>
-      </c>
-      <c r="F44">
-        <v>185.5</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>267.5</v>
+        <v>265.7</v>
       </c>
       <c r="B45">
-        <v>186.4</v>
+        <v>186.2</v>
       </c>
       <c r="C45">
-        <v>84.3</v>
+        <v>84.4</v>
       </c>
       <c r="D45">
-        <v>16.8</v>
+        <v>16.3</v>
       </c>
       <c r="E45">
-        <v>301.39999999999998</v>
+        <v>301.2</v>
       </c>
       <c r="F45">
-        <v>186.2</v>
+        <v>185.5</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>265.8</v>
+        <v>267.5</v>
       </c>
       <c r="B46">
-        <v>185.9</v>
+        <v>186.4</v>
       </c>
       <c r="C46">
-        <v>91</v>
+        <v>84.3</v>
       </c>
       <c r="D46">
-        <v>19.5</v>
+        <v>16.8</v>
       </c>
       <c r="E46">
-        <v>301.10000000000002</v>
+        <v>301.39999999999998</v>
       </c>
       <c r="F46">
-        <v>184.8</v>
+        <v>186.2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>267.10000000000002</v>
+        <v>265.8</v>
       </c>
       <c r="B47">
-        <v>186.1</v>
+        <v>185.9</v>
       </c>
       <c r="C47">
-        <v>85.4</v>
+        <v>91</v>
       </c>
       <c r="D47">
-        <v>16.7</v>
+        <v>19.5</v>
       </c>
       <c r="E47">
-        <v>290.3</v>
+        <v>301.10000000000002</v>
       </c>
       <c r="F47">
-        <v>185.9</v>
+        <v>184.8</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2233,22 +5889,22 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>266.2</v>
+        <v>267.10000000000002</v>
       </c>
       <c r="B49">
-        <v>186</v>
+        <v>186.1</v>
       </c>
       <c r="C49">
-        <v>84.4</v>
+        <v>85.4</v>
       </c>
       <c r="D49">
-        <v>17.399999999999999</v>
+        <v>16.7</v>
       </c>
       <c r="E49">
-        <v>296</v>
+        <v>290.3</v>
       </c>
       <c r="F49">
-        <v>185.8</v>
+        <v>185.9</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2268,6 +5924,26 @@
         <v>296</v>
       </c>
       <c r="F50">
+        <v>185.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>266.2</v>
+      </c>
+      <c r="B51">
+        <v>186</v>
+      </c>
+      <c r="C51">
+        <v>84.4</v>
+      </c>
+      <c r="D51">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E51">
+        <v>296</v>
+      </c>
+      <c r="F51">
         <v>185.8</v>
       </c>
     </row>
@@ -3825,7 +7501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C13C30D-88E6-49AD-AD97-66708EEAB1D3}">
   <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
